--- a/pred_ohlcv/54_21/2020-01-23 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 WPX ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-13625.9942102143</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-13625.9942102143</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-18587.0772102143</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-18587.0772102143</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-18587.0772102143</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-19456.2841760948</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-19456.2841760948</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-36650.22047609481</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-26626.22047609481</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-25026.91797609481</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-25793.67397609481</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-22736.55747609481</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>26039.56272390519</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>26039.56272390519</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>26039.56272390519</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>26051.24442390519</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>26051.24442390519</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>24382.15792390519</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-7676.176376094809</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-5509.365976094809</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-18914.74217609481</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-32320.11847609481</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-34291.94427609481</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-34291.94427609481</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-35891.24677609481</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-33597.9965760948</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-33597.9965760948</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-33450.16177609481</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-26427.14177609481</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2672.086836405193</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3349.246636405193</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3349.246636405193</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>23112.4772364052</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13666.6503364052</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>27541.2404364052</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>27541.2404364052</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>27991.2404364052</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>31297.9728364052</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>39851.1848364052</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>39851.1848364052</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>39851.1848364052</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>37874.7550364052</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>20251.8964364052</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>21151.8964364052</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-45282.5650635948</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-45282.5650635948</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-45278.6830635948</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-45278.6830635948</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-64979.7253635948</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-64979.7253635948</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-64975.8402635948</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-65905.2140635948</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-65635.2084635948</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-66306.71786359479</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-59864.0601635948</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-56855.2181635948</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-45691.11515046739</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-46567.30122375931</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-46567.30122375931</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-49988.03742375931</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-49988.03742375931</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-49988.03742375931</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-106455.8452237593</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-199708.2753237593</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1251049.287245071</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1251009.31409674</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1258239.634596739</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1541427.842048249</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1589864.239331991</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1609009.392531991</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1509510.912384416</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-673388.9646811378</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-696893.5909572875</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-696203.6059572875</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-684575.3091572875</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-688145.9725572874</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-713764.9314572874</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-736026.7931572874</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-863942.0860238508</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-838368.6656238509</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-482784.7083339157</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-576556.8791506657</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-465856.8514506657</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-471733.9227020068</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-463858.2817806274</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-452148.7452806275</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-441565.2024806275</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-444983.8001806274</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-469594.8648806274</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-655314.4863806274</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>56670.45998101578</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>110482.1679261286</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-212982.6829738715</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-253801.2649821221</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-236033.6527821221</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-256694.7080821221</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-212566.3170821221</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-321162.142082122</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-320315.142082122</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-326991.748782122</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-522184.9505821221</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-489635.2728821221</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-755452.6346821222</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-742786.5786821222</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-790435.4968821221</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-732888.1817821221</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-731692.5502821221</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-736953.9875821221</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-718355.871182122</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-718029.742582122</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-705921.374382122</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-732932.8778821219</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-742426.3084821219</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-742426.3084821219</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-693848.080182122</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-694788.328582122</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-702877.058682122</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-529117.224882122</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-538921.989782122</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-2979670.12759027</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-3119468.12469027</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-3115035.05669027</v>
       </c>
       <c r="H826">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-3108741.63069027</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-3095044.45809027</v>
       </c>
       <c r="H828">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3095054.58499027</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-3082159.84979027</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3122526.87029027</v>
       </c>
       <c r="H831">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-3106075.47869027</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-3088694.73519027</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-3010307.77389027</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H835">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-3027730.148953482</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3085770.548016694</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3058352.532716694</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3011787.350790185</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2964394.538690185</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3124944.02297877</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3119526.960736212</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3187668.675836212</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3149855.797636212</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3229115.073136212</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3208706.132236212</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3248062.275236213</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3253315.081936213</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-3247068.474436213</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-3267187.370336213</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-3230563.807436212</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-3215372.077636213</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-3235783.183836212</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-3222466.303636212</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3222406.303636212</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-3270765.292536212</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-3358297.635236212</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3360907.425236212</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3460627.227536212</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-3477294.244636212</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-3431647.566736212</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-3439874.040336212</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-3439790.400936212</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-3445990.400936212</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-3452240.400936212</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-3416670.367836212</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-3417201.543736212</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3415795.278617775</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-3461402.002417775</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3470524.502917775</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3468524.502917775</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3468774.502917775</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3465855.214117775</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3476182.257717775</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-3576145.204017775</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-3462053.722317775</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3459734.918417775</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3491231.159917775</v>
       </c>
       <c r="H914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-3468075.008788999</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-3467896.277788999</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 WPX ohlcv.xlsx
@@ -1744,7 +1744,7 @@
         <v>3349.246636405193</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>23783.9866364052</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>23112.4772364052</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13666.6503364052</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>27541.2404364052</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>27401.4640364052</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>39851.1848364052</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>51896.6001364052</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>10958.9843364052</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>20251.8964364052</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>21151.8964364052</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>20039.3418364052</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-64979.7253635948</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-65905.2140635948</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-65635.2084635948</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-59864.0601635948</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-56855.2181635948</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-46076.2425635948</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-45691.11515046739</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-46567.30122375931</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-46567.30122375931</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-49988.03742375931</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1251049.287245071</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1251009.31409674</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1258239.634596739</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1541427.842048249</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1589864.239331991</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1609009.392531991</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1509510.912384416</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-891115.1998567402</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-573863.7394134259</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-434176.3585662667</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-586308.2049680104</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-673388.9646811378</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-673380.8646811378</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-674599.3561811378</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-738893.2440811378</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-711902.9327811378</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-792442.5833811378</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-792427.0133811379</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-770180.8018431363</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-778293.4660431363</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-767706.1169431363</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-767710.1169431363</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-767710.1169431363</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-767710.1169431363</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-785396.8275431363</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-788340.6629431363</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-748068.0568431363</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-763680.1733431363</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-734958.8133431363</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-752796.1866431363</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-752791.1866431363</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-752791.1866431363</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-743532.7796431363</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-743546.8806431363</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-743554.8806431363</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-769590.4742684136</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-755837.2559684137</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-758597.2828684137</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-758593.2828684137</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-761430.2656684137</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-756133.9921221631</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-809579.992422163</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-841028.990359125</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-880280.599859125</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-844263.570059125</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-867173.154259125</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-836055.663359125</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-816731.6176166913</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-885263.1671166912</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-885263.1671166912</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-795113.8145924353</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-797485.1601924353</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-783337.5038924352</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-783337.5038924352</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-808268.3514924352</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-798109.8709924353</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-798109.8709924353</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-798188.4254924352</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-784690.3395276607</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-784690.3395276607</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-786627.4213276608</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-789978.0873276608</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-783329.5518276608</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-783329.5518276608</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-764565.7190276608</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-764565.7190276608</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-734129.4232375363</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-736129.4232375363</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-730473.343818219</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-734696.0312280946</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-729666.6757266435</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-706951.0750572875</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-698783.4250572874</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-696893.5909572875</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-696203.6059572875</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-696541.6639572874</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-684575.3091572875</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-688145.9725572874</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-713764.9314572874</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-707958.8975572874</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-736026.7931572874</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-735758.4727238509</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-863942.0860238508</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-838368.6656238509</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-907955.0839238509</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-868881.0173238509</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-855216.1967238509</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-626783.1208238509</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-543813.0384339157</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-482784.7083339157</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-524080.2557506657</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-576556.8791506657</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-465856.8514506657</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-471733.9227020068</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-463858.2817806274</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-452148.7452806275</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-441565.2024806275</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-464583.7182806275</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-444983.8001806274</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-469594.8648806274</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-655314.4863806274</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-681348.4343806274</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>56670.45998101578</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>110482.1679261286</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-212982.6829738715</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-109913.7018738715</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-197631.2132738715</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-253801.2649821221</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-236033.6527821221</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-256694.7080821221</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-212566.3170821221</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-321162.142082122</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-320315.142082122</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-326991.748782122</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-492066.7060821221</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-489635.2728821221</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-755452.6346821222</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-742786.5786821222</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-790435.4968821221</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-732888.1817821221</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-731692.5502821221</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-733352.2081821221</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-736953.9875821221</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-718355.871182122</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-705921.374382122</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-732932.8778821219</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-742426.3084821219</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-706138.3844821219</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-693848.080182122</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-694788.328582122</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-529117.224882122</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-529117.224882122</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-538921.989782122</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-538467.712782122</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-542776.466682122</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-542799.677682122</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-519068.165582122</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-489490.706282122</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-499887.209082122</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-498379.615682122</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-498379.615682122</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-680957.483882122</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-697345.167382122</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-697345.167382122</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-723239.910582122</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-3108741.63069027</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-3095044.45809027</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-3095054.58499027</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-3082159.84979027</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-3122526.87029027</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-3106075.47869027</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-3088694.73519027</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-3010307.77389027</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-3029980.94529027</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-3033057.94529027</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-3027730.148953482</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-3113370.094716694</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-3085770.548016694</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-3058352.532716694</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-3011787.350790185</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-2964394.538690185</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-2988102.217690185</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-3023054.80147877</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3058147.71397877</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3080096.30467877</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3125860.84857877</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3124944.02297877</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3115813.550850094</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3131531.237650094</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3112839.37387877</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3048736.92897877</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3007221.64447877</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-2991063.528936212</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3119526.960736212</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3187668.675836212</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3149855.797636212</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3194721.043536212</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3229115.073136212</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3208706.132236212</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3248062.275236213</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3248439.284036213</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3253315.081936213</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-3247068.474436213</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-3267187.370336213</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-3231476.440836213</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-3230563.807436212</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-3215372.077636213</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-3235783.183836212</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-3222466.303636212</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3222406.303636212</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-3270765.292536212</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-3358297.635236212</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3360907.425236212</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3460627.227536212</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-3477294.244636212</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-3431647.566736212</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-3439874.040336212</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-3439790.400936212</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-3445990.400936212</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-3452240.400936212</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-3416670.367836212</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-3417201.543736212</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-3415795.278617775</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-3416419.632717775</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-3461407.002417775</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-3461402.002417775</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3470524.502917775</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-3468524.502917775</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-3468774.502917775</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-3465855.214117775</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3476182.257717775</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-3465769.132517775</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-3576145.204017775</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-3462053.722317775</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3459734.918417775</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3491231.159917775</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-3468075.008788999</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-3467896.277788999</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-3422167.696288999</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-3425087.482888999</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
